--- a/ONCHO/Breeding Site Survey/Burkina Faso/bf_Oncho_Entomo_1_Point_de_capture_202110.xlsx
+++ b/ONCHO/Breeding Site Survey/Burkina Faso/bf_Oncho_Entomo_1_Point_de_capture_202110.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Burkina Faso\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEADBC52-747B-4ABA-B785-48B811901B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -57,19 +51,79 @@
     <t>Observations</t>
   </si>
   <si>
+    <t>select_one captureur_list</t>
+  </si>
+  <si>
+    <t>Identifiant_Captureur</t>
+  </si>
+  <si>
+    <t>Identifiant du Captureur</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>select_one DS_list</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Sélectionner un DS</t>
+  </si>
+  <si>
+    <t>select_one CSPS_list</t>
+  </si>
+  <si>
+    <t>Nom_du_CSPS</t>
+  </si>
+  <si>
+    <t>Nom du CSPS</t>
+  </si>
+  <si>
+    <t>DS_list = ${District}</t>
+  </si>
+  <si>
+    <t>select_one point_list</t>
+  </si>
+  <si>
+    <t>Nom_du_point_de_capture</t>
+  </si>
+  <si>
+    <t>Nom du point de capture</t>
+  </si>
+  <si>
+    <t>CSPS_list = ${Nom_du_CSPS}</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>Nom_du_CSPS</t>
-  </si>
-  <si>
-    <t>Nom du CSPS</t>
+    <t>Bassin</t>
+  </si>
+  <si>
+    <t>Nom du bassin</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date de collecte</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Hauteur_crue</t>
+  </si>
+  <si>
+    <t>Hauteur d'echelle de crue</t>
+  </si>
+  <si>
+    <t>exemple : 199.05</t>
   </si>
   <si>
     <t>geopoint</t>
@@ -84,6 +138,12 @@
     <t>Fonctionne mieux à l'extérieure des batiments</t>
   </si>
   <si>
+    <t>Initial_captureur</t>
+  </si>
+  <si>
+    <t>Initial du captureur</t>
+  </si>
+  <si>
     <t>commentaires</t>
   </si>
   <si>
@@ -105,12 +165,156 @@
     <t>list_name</t>
   </si>
   <si>
+    <t>DS_list</t>
+  </si>
+  <si>
+    <t>CSPS_list</t>
+  </si>
+  <si>
+    <t>captureur_list</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
+    <t>Banfora</t>
+  </si>
+  <si>
+    <t>Mangodara</t>
+  </si>
+  <si>
+    <t>Sindou</t>
+  </si>
+  <si>
+    <t>Boko</t>
+  </si>
+  <si>
+    <t>Gbagbar</t>
+  </si>
+  <si>
+    <t>Moussodougou</t>
+  </si>
+  <si>
+    <t>Toumousseni</t>
+  </si>
+  <si>
+    <t>Folonzo</t>
+  </si>
+  <si>
+    <t>Karfiguela</t>
+  </si>
+  <si>
+    <t>Kimini</t>
+  </si>
+  <si>
+    <t>Diarabakoko</t>
+  </si>
+  <si>
+    <t>Boulo</t>
+  </si>
+  <si>
+    <t>Yendere</t>
+  </si>
+  <si>
+    <t>Yendéré</t>
+  </si>
+  <si>
+    <t>Ouangolodougou</t>
+  </si>
+  <si>
+    <t>Koflande</t>
+  </si>
+  <si>
+    <t>Koflandé</t>
+  </si>
+  <si>
+    <t>Loumana</t>
+  </si>
+  <si>
+    <t>point_list</t>
+  </si>
+  <si>
+    <t>BadaraDogosse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badara Dogossé </t>
+  </si>
+  <si>
+    <t>BadaraKaraboro</t>
+  </si>
+  <si>
+    <t>Badara Karaboro</t>
+  </si>
+  <si>
+    <t>Bolibana1</t>
+  </si>
+  <si>
+    <t>Gnerpien</t>
+  </si>
+  <si>
+    <t>KayounaTimble</t>
+  </si>
+  <si>
+    <t>Kayouna (Timblé)</t>
+  </si>
+  <si>
+    <t>Bodadiougoupetitbarrage</t>
+  </si>
+  <si>
+    <t>Bodadiougou petit barrage</t>
+  </si>
+  <si>
+    <t>Bodadiougouvillage</t>
+  </si>
+  <si>
+    <t>Bodadiougou village</t>
+  </si>
+  <si>
+    <t>BodadiougoucampPeulh</t>
+  </si>
+  <si>
+    <t>Bodadiougou camp Peulh</t>
+  </si>
+  <si>
+    <t>BodadiougouBarriere</t>
+  </si>
+  <si>
+    <t>Bodadiougou Barriere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadaraDogossé </t>
+  </si>
+  <si>
+    <t>Bandougou</t>
+  </si>
+  <si>
+    <t>Congala1</t>
+  </si>
+  <si>
+    <t>Congala 1</t>
+  </si>
+  <si>
+    <t>Badara</t>
+  </si>
+  <si>
+    <t>PontLérabaLerababougou</t>
+  </si>
+  <si>
+    <t>Pont Léraba/Lérababougou</t>
+  </si>
+  <si>
+    <t>Dagouindougou</t>
+  </si>
+  <si>
+    <t>Toussiambougou</t>
+  </si>
+  <si>
+    <t>Kossoumani</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -123,221 +327,26 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
+    <t>(octobre 2021) Burkina Faso Oncho_Entomo - 1. Formulaire point de capture V1</t>
+  </si>
+  <si>
+    <t>bf_Oncho_Entomo_1_Point_de_capture_202110_v1</t>
+  </si>
+  <si>
     <t>French</t>
-  </si>
-  <si>
-    <t>select_one DS_list</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Sélectionner un DS</t>
-  </si>
-  <si>
-    <t>Bassin</t>
-  </si>
-  <si>
-    <t>Nom du bassin</t>
-  </si>
-  <si>
-    <t>select_one CSPS_list</t>
-  </si>
-  <si>
-    <t>Date de collecte</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>select_one captureur_list</t>
-  </si>
-  <si>
-    <t>Identifiant_Captureur</t>
-  </si>
-  <si>
-    <t>Identifiant du Captureur</t>
-  </si>
-  <si>
-    <t>captureur_list</t>
-  </si>
-  <si>
-    <t>DS_list</t>
-  </si>
-  <si>
-    <t>Banfora</t>
-  </si>
-  <si>
-    <t>Mangodara</t>
-  </si>
-  <si>
-    <t>Sindou</t>
-  </si>
-  <si>
-    <t>CSPS_list</t>
-  </si>
-  <si>
-    <t>Boko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badara Dogossé </t>
-  </si>
-  <si>
-    <t>Badara Karaboro</t>
-  </si>
-  <si>
-    <t>Gbagbar</t>
-  </si>
-  <si>
-    <t>Bolibana1</t>
-  </si>
-  <si>
-    <t>Moussodougou</t>
-  </si>
-  <si>
-    <t>Gnerpien</t>
-  </si>
-  <si>
-    <t>Kayouna (Timblé)</t>
-  </si>
-  <si>
-    <t>Toumousseni</t>
-  </si>
-  <si>
-    <t>Bodadiougou petit barrage</t>
-  </si>
-  <si>
-    <t>Bodadiougou village</t>
-  </si>
-  <si>
-    <t>Bodadiougou camp Peulh</t>
-  </si>
-  <si>
-    <t>Bodadiougou Barriere</t>
-  </si>
-  <si>
-    <t>Folonzo</t>
-  </si>
-  <si>
-    <t>Karfiguela</t>
-  </si>
-  <si>
-    <t>Bandougou</t>
-  </si>
-  <si>
-    <t>Kimini</t>
-  </si>
-  <si>
-    <t>Congala 1</t>
-  </si>
-  <si>
-    <t>Diarabakoko</t>
-  </si>
-  <si>
-    <t>Boulo</t>
-  </si>
-  <si>
-    <t>Badara</t>
-  </si>
-  <si>
-    <t>Yendéré</t>
-  </si>
-  <si>
-    <t>Pont Léraba/Lérababougou</t>
-  </si>
-  <si>
-    <t>Dagouindougou</t>
-  </si>
-  <si>
-    <t>Ouangolodougou</t>
-  </si>
-  <si>
-    <t>Toussiambougou</t>
-  </si>
-  <si>
-    <t>Koflandé</t>
-  </si>
-  <si>
-    <t>Kossoumani</t>
-  </si>
-  <si>
-    <t>Loumana</t>
-  </si>
-  <si>
-    <t>select_one point_list</t>
-  </si>
-  <si>
-    <t>Nom_du_point_de_capture</t>
-  </si>
-  <si>
-    <t>Nom du point de capture</t>
-  </si>
-  <si>
-    <t>point_list</t>
-  </si>
-  <si>
-    <t>Initial_captureur</t>
-  </si>
-  <si>
-    <t>Initial du captureur</t>
-  </si>
-  <si>
-    <t>Yendere</t>
-  </si>
-  <si>
-    <t>Koflande</t>
-  </si>
-  <si>
-    <t>BadaraDogosse</t>
-  </si>
-  <si>
-    <t>BadaraKaraboro</t>
-  </si>
-  <si>
-    <t>Bodadiougoupetitbarrage</t>
-  </si>
-  <si>
-    <t>KayounaTimble</t>
-  </si>
-  <si>
-    <t>Bodadiougouvillage</t>
-  </si>
-  <si>
-    <t>BodadiougoucampPeulh</t>
-  </si>
-  <si>
-    <t>BodadiougouBarriere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BadaraDogossé </t>
-  </si>
-  <si>
-    <t>Congala1</t>
-  </si>
-  <si>
-    <t>PontLérabaLerababougou</t>
-  </si>
-  <si>
-    <t>bf_Oncho_Entomo_1_Point_de_capture_202110</t>
-  </si>
-  <si>
-    <t>(BF - Otobre 2021) Oncho_Entomo - 1. Formulaire point de capture</t>
-  </si>
-  <si>
-    <t>DS_list = ${District}</t>
-  </si>
-  <si>
-    <t>CSPS_list = ${Nom_du_CSPS}</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,8 +383,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +544,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -399,33 +751,275 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -457,28 +1051,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -736,33 +1380,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="10.6266666666667" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.609375" customWidth="1"/>
-    <col min="2" max="2" width="24.38671875" customWidth="1"/>
-    <col min="3" max="3" width="50.38671875" customWidth="1"/>
-    <col min="4" max="4" width="16.38671875" customWidth="1"/>
-    <col min="5" max="5" width="13.609375" customWidth="1"/>
-    <col min="6" max="6" width="18.609375" customWidth="1"/>
+    <col min="1" max="1" width="26.6266666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.3733333333333" customWidth="1"/>
+    <col min="3" max="3" width="50.3733333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.3733333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.6266666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.6266666666667" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.609375" customWidth="1"/>
+    <col min="8" max="8" width="30.6266666666667" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.1266666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36">
+    <row r="1" ht="36" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -790,22 +1434,22 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1">
+    <row r="2" s="8" customFormat="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -813,19 +1457,19 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -833,18 +1477,18 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
@@ -852,21 +1496,21 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="11"/>
@@ -874,21 +1518,21 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -896,18 +1540,18 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -915,113 +1559,131 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="47">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" ht="47.25" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="10.6266666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.609375" customWidth="1"/>
+    <col min="1" max="1" width="16.3733333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.6266666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.1266666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.6266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1030,634 +1692,622 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+    <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
-      <c r="A20" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
-      <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="E29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
-      <c r="A22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
-      <c r="A23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
-      <c r="A24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
-      <c r="A26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
-      <c r="A27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="E32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
-      <c r="A29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
-      <c r="A30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
-      <c r="A32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
-      <c r="A33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
-      <c r="A35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
-      <c r="A38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
-      <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="4:4">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+    <row r="41" s="2" customFormat="1" spans="4:4">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+    <row r="42" s="2" customFormat="1" spans="4:4">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+    <row r="43" s="2" customFormat="1" spans="4:4">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" s="2" customFormat="1" spans="1:4">
       <c r="A44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
+    <row r="45" s="2" customFormat="1" spans="1:4">
       <c r="A45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" s="2" customFormat="1" spans="1:4">
       <c r="A46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
+    <row r="47" s="2" customFormat="1" spans="1:4">
       <c r="A47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
+    <row r="48" s="2" customFormat="1" spans="1:4">
       <c r="A48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1">
+    <row r="49" s="2" customFormat="1" spans="1:4">
       <c r="A49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1">
+    <row r="50" s="2" customFormat="1" spans="1:4">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:1">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:1">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:1">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:1">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:1">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:1">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:1">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:1">
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1">
@@ -1686,58 +2336,61 @@
       <c r="C87" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A72:D86">
+  <sortState ref="A72:D86">
     <sortCondition ref="B72:B86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="10.6266666666667" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.609375" customWidth="1"/>
+    <col min="1" max="1" width="44.1266666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.6266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>